--- a/Unity_Portfolio/Assets/08.Tables/NPCTable.xlsx
+++ b/Unity_Portfolio/Assets/08.Tables/NPCTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\Unity_Portfolio\Unity_Portfolio\Assets\08.Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A64EEC-10F3-4A7C-8AA2-2FEF40260419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083693B9-C78D-4258-A168-CE33CA19C2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,11 +98,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dialogue_Youko_1,Dialogue_Youko_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_Souta_1,Dialogue_Souta_2</t>
+    <t>Dialogue_Souta_1/Dialogue_Souta_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_Youko_1/Dialogue_Youko_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +529,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -622,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
